--- a/Parcel-Test-Features/Custom-Template-Asthetic/src/Test_Data/Templates_Feature.xlsx
+++ b/Parcel-Test-Features/Custom-Template-Asthetic/src/Test_Data/Templates_Feature.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Credentials" sheetId="1" r:id="rId1"/>
@@ -449,7 +449,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -504,10 +504,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,6 +561,11 @@
         <v>44</v>
       </c>
     </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>1567</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
